--- a/config_3.2/activity_exchange_server.xlsx
+++ b/config_3.2/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="312">
   <si>
     <t>id|</t>
   </si>
@@ -1501,6 +1501,37 @@
   </si>
   <si>
     <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神的礼物</t>
+  </si>
+  <si>
+    <t>女神的礼物--cjj</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神节</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1587,7 +1618,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,37 +1633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1721,31 +1728,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,9 +1740,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1768,17 +1747,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1792,30 +1764,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1824,46 +1773,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,8 +2083,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2156,9 +2094,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="41" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="28" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="28" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2405,11 +2343,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="7">
@@ -2420,7 +2358,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="7">
@@ -2432,17 +2370,17 @@
       <c r="J8" s="15">
         <v>7</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="7">
@@ -2453,7 +2391,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="16" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="7">
@@ -2465,17 +2403,17 @@
       <c r="J9" s="15">
         <v>8</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="7">
@@ -2486,7 +2424,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H10" s="7">
@@ -2498,17 +2436,17 @@
       <c r="J10" s="15">
         <v>9</v>
       </c>
-      <c r="K10" s="26">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="7">
@@ -2519,7 +2457,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="7">
@@ -2531,28 +2469,28 @@
       <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="19">
         <v>1609775999</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H12" s="7">
@@ -2564,28 +2502,28 @@
       <c r="J12" s="15">
         <v>11</v>
       </c>
-      <c r="K12" s="26">
-        <v>1</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="19">
         <v>1609775999</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H13" s="7">
@@ -2597,28 +2535,28 @@
       <c r="J13" s="15">
         <v>12</v>
       </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="19">
         <v>1609775999</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H14" s="7">
@@ -2630,28 +2568,28 @@
       <c r="J14" s="15">
         <v>13</v>
       </c>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="19">
         <v>1609775999</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="7">
@@ -2663,28 +2601,28 @@
       <c r="J15" s="15">
         <v>14</v>
       </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>1610380799</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="7">
@@ -2696,28 +2634,28 @@
       <c r="J16" s="7">
         <v>15</v>
       </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>1610380799</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="7">
@@ -2729,26 +2667,26 @@
       <c r="J17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="26">
-        <v>1</v>
-      </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" s="39" customFormat="1">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" s="26" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="25">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="25">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H18" s="7">
@@ -2760,15 +2698,15 @@
       <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C19" s="7">
@@ -2779,7 +2717,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="16" t="s">
         <v>189</v>
       </c>
       <c r="H19" s="7">
@@ -2791,15 +2729,15 @@
       <c r="J19" s="15">
         <v>18</v>
       </c>
-      <c r="K19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="39" customFormat="1">
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="26" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C20" s="7">
@@ -2808,7 +2746,7 @@
       <c r="D20" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H20" s="7">
@@ -2820,15 +2758,15 @@
       <c r="J20" s="15">
         <v>19</v>
       </c>
-      <c r="K20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="17" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C21" s="7">
@@ -2839,7 +2777,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H21" s="7">
@@ -2851,15 +2789,15 @@
       <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="7">
@@ -2870,27 +2808,27 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="38">
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="25">
         <v>21</v>
       </c>
-      <c r="K22" s="26">
-        <v>1</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C23" s="7">
@@ -2901,27 +2839,27 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="38">
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="25">
         <v>22</v>
       </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C24" s="7">
@@ -2932,27 +2870,27 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="38">
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="25">
         <v>23</v>
       </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" s="26" customFormat="1">
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="7">
@@ -2961,25 +2899,25 @@
       <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38">
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="25">
         <v>24</v>
       </c>
-      <c r="K25" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="17" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="7">
@@ -2988,25 +2926,25 @@
       <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="38">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="38">
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25">
         <v>25</v>
       </c>
-      <c r="K26" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="17" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="7">
@@ -3017,25 +2955,25 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="38">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="38">
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="25">
         <v>26</v>
       </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="17" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="7">
@@ -3046,25 +2984,25 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="38">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38">
+      <c r="H28" s="25">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25">
         <v>27</v>
       </c>
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="17" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="7">
@@ -3075,25 +3013,25 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H29" s="38">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="38">
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25">
         <v>28</v>
       </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="17" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="7">
@@ -3104,25 +3042,25 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="38">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="38">
+      <c r="H30" s="25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25">
         <v>29</v>
       </c>
-      <c r="K30" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="39" customFormat="1">
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="26" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="7">
@@ -3131,7 +3069,7 @@
       <c r="D31" s="7">
         <v>1612195199</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H31" s="7">
@@ -3143,15 +3081,15 @@
       <c r="J31" s="15">
         <v>30</v>
       </c>
-      <c r="K31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="17" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C32" s="7">
@@ -3162,7 +3100,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H32" s="7">
@@ -3174,15 +3112,15 @@
       <c r="J32" s="15">
         <v>31</v>
       </c>
-      <c r="K32" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="39" customFormat="1">
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="26" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="16" t="s">
         <v>253</v>
       </c>
       <c r="C33" s="7">
@@ -3191,7 +3129,7 @@
       <c r="D33" s="7">
         <v>1612799999</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H33" s="7">
@@ -3203,15 +3141,15 @@
       <c r="J33" s="15">
         <v>32</v>
       </c>
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="26" customFormat="1">
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="17" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="16" t="s">
         <v>254</v>
       </c>
       <c r="C34" s="7">
@@ -3222,7 +3160,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H34" s="7">
@@ -3234,309 +3172,362 @@
       <c r="J34" s="15">
         <v>33</v>
       </c>
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="46" customFormat="1">
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="17" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="47" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="H35" s="48">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
         <v>25</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="15">
         <v>34</v>
       </c>
-      <c r="K35" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="29" customFormat="1">
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="17" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="43" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="44">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="H36" s="25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
         <v>26</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="15">
         <v>35</v>
       </c>
-      <c r="K36" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="59">
-        <v>1</v>
-      </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="59">
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="25">
         <v>36</v>
       </c>
-      <c r="K37" s="61">
-        <v>1</v>
-      </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H38" s="59">
-        <v>1</v>
-      </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="59">
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="25">
         <v>37</v>
       </c>
-      <c r="K38" s="61">
-        <v>1</v>
-      </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="59">
-        <v>1</v>
-      </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="59">
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="25">
         <v>38</v>
       </c>
-      <c r="K39" s="61">
-        <v>1</v>
-      </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="1:16" s="17" customFormat="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="70" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H40" s="67">
-        <v>1</v>
-      </c>
-      <c r="I40" s="66">
+      <c r="H40" s="25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
         <v>27</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="15">
         <v>39</v>
       </c>
-      <c r="K40" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="17" customFormat="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="70" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H41" s="67">
-        <v>1</v>
-      </c>
-      <c r="I41" s="66">
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
         <v>28</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="15">
         <v>40</v>
       </c>
-      <c r="K41" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="26" customFormat="1">
-      <c r="A42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="44" spans="1:16" s="26" customFormat="1">
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="39" customFormat="1">
+      <c r="A42" s="34">
+        <v>41</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>29</v>
+      </c>
+      <c r="J42" s="38">
+        <v>41</v>
+      </c>
+      <c r="K42" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="39" customFormat="1">
+      <c r="A43" s="34">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" s="37">
+        <v>1</v>
+      </c>
+      <c r="I43" s="34">
+        <v>30</v>
+      </c>
+      <c r="J43" s="38">
+        <v>42</v>
+      </c>
+      <c r="K43" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="17" customFormat="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="54"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="38"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="7"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:16" s="26" customFormat="1">
+    <row r="45" spans="1:16" s="17" customFormat="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="7"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:16" s="26" customFormat="1">
+    <row r="46" spans="1:16" s="17" customFormat="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="54"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="7"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:16" s="26" customFormat="1">
+    <row r="47" spans="1:16" s="17" customFormat="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="7"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:16" s="26" customFormat="1">
+    <row r="48" spans="1:16" s="17" customFormat="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="54"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="7"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1">
+    <row r="49" spans="1:10" s="17" customFormat="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="54"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="7"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1">
+    <row r="50" spans="1:10" s="17" customFormat="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="7"/>
       <c r="J50" s="15"/>
     </row>
@@ -3551,10 +3542,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3681,10 +3672,10 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3692,10 +3683,10 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3703,10 +3694,10 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3714,10 +3705,10 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3725,25 +3716,25 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3751,25 +3742,25 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3780,7 +3771,7 @@
       <c r="B18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3791,7 +3782,7 @@
       <c r="B19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3799,10 +3790,10 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3810,10 +3801,10 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="16" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3821,10 +3812,10 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3832,10 +3823,10 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3843,10 +3834,10 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="16" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3854,55 +3845,77 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" s="7" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" s="7" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" s="7" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="16" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="34" customFormat="1">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="34" customFormat="1">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3915,13 +3928,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D236" sqref="D236"/>
+      <selection pane="bottomRight" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4565,21 +4578,21 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="20">
         <v>5</v>
       </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="7">
@@ -4590,21 +4603,21 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>5</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="20">
         <v>2</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20" t="s">
         <v>115</v>
       </c>
       <c r="J27" s="7">
@@ -4615,21 +4628,21 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>5</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20" t="s">
         <v>116</v>
       </c>
       <c r="J28" s="7">
@@ -4640,23 +4653,23 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>5</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="20">
         <v>4</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4664,23 +4677,23 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="20">
         <v>5</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="32" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J30" s="7">
@@ -4691,23 +4704,23 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>5</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="20">
         <v>6</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J31" s="7">
@@ -4718,23 +4731,23 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>5</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="20">
         <v>7</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J32" s="7">
@@ -4745,23 +4758,23 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>5</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="20">
         <v>8</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="20" t="s">
         <v>120</v>
       </c>
       <c r="J33" s="7">
@@ -4772,21 +4785,21 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>6</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J34" s="7">
@@ -4797,21 +4810,21 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>6</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="20">
         <v>2</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J35" s="7">
@@ -4822,21 +4835,21 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>6</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="20">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J36" s="7">
@@ -4847,23 +4860,23 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>6</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="20">
         <v>4</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="32" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4871,23 +4884,23 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>6</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="20">
         <v>5</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="32" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J38" s="7">
@@ -4898,23 +4911,23 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>6</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="20">
         <v>6</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="32" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J39" s="7">
@@ -4925,23 +4938,23 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>6</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="20">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="32" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J40" s="7">
@@ -4952,23 +4965,23 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="20">
         <v>6</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="20">
         <v>8</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J41" s="7">
@@ -4979,21 +4992,21 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="20">
         <v>7</v>
       </c>
-      <c r="C42" s="30">
-        <v>1</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J42" s="7">
@@ -5004,21 +5017,21 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>7</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="20">
         <v>2</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J43" s="7">
@@ -5029,21 +5042,21 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="20">
         <v>7</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="20">
         <v>3</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="20" t="s">
         <v>94</v>
       </c>
       <c r="J44" s="7">
@@ -5054,23 +5067,23 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="20">
         <v>7</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="20">
         <v>4</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5078,23 +5091,23 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="20">
         <v>7</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="20">
         <v>5</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="32" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J46" s="7">
@@ -5105,23 +5118,23 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <v>7</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="20">
         <v>6</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="32" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J47" s="7">
@@ -5132,23 +5145,23 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="20">
         <v>7</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="20">
         <v>7</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="32" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J48" s="7">
@@ -5159,23 +5172,23 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <v>7</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="20">
         <v>8</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="32" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J49" s="7">
@@ -5186,21 +5199,21 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="20">
         <v>8</v>
       </c>
-      <c r="C50" s="30">
-        <v>1</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J50" s="7">
@@ -5211,21 +5224,21 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="20">
         <v>8</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="20">
         <v>2</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J51" s="7">
@@ -5236,21 +5249,21 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="20">
         <v>8</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="20">
         <v>3</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J52" s="7">
@@ -5261,23 +5274,23 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="20">
         <v>8</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="20">
         <v>4</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="32" t="s">
+      <c r="E53" s="20"/>
+      <c r="F53" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5285,23 +5298,23 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="20">
         <v>8</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="20">
         <v>5</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="32" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="7">
@@ -5312,23 +5325,23 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="20">
         <v>8</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="20">
         <v>6</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J55" s="7">
@@ -5339,23 +5352,23 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="20">
         <v>8</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="20">
         <v>7</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="32" t="s">
+      <c r="E56" s="20"/>
+      <c r="F56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J56" s="7">
@@ -5366,23 +5379,23 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="20">
         <v>8</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="20">
         <v>8</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="32" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J57" s="7">
@@ -5393,21 +5406,21 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="20">
         <v>9</v>
       </c>
-      <c r="C58" s="30">
-        <v>1</v>
-      </c>
-      <c r="D58" s="31" t="s">
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="30" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J58" s="7">
@@ -5418,21 +5431,21 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="20">
         <v>9</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="20">
         <v>2</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="30" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J59" s="7">
@@ -5443,21 +5456,21 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="20">
         <v>9</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="20">
         <v>3</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="30" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J60" s="7">
@@ -5468,23 +5481,23 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="20">
         <v>9</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="20">
         <v>4</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="32" t="s">
+      <c r="E61" s="20"/>
+      <c r="F61" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5492,23 +5505,23 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="20">
         <v>9</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="20">
         <v>5</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="32" t="s">
+      <c r="E62" s="20"/>
+      <c r="F62" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J62" s="7">
@@ -5519,23 +5532,23 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="20">
         <v>9</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="20">
         <v>6</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="E63" s="20"/>
+      <c r="F63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J63" s="7">
@@ -5546,23 +5559,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="20">
         <v>9</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="20">
         <v>7</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="32" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J64" s="7">
@@ -5573,23 +5586,23 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="20">
         <v>9</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="20">
         <v>8</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="32" t="s">
+      <c r="E65" s="20"/>
+      <c r="F65" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J65" s="7">
@@ -5600,21 +5613,21 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="20">
         <v>10</v>
       </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="30" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="7">
@@ -5625,21 +5638,21 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="20">
         <v>10</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="20">
         <v>2</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="30" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J67" s="7">
@@ -5650,21 +5663,21 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="20">
         <v>10</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="20">
         <v>3</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="30" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J68" s="7">
@@ -5675,23 +5688,23 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="20">
         <v>10</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="20">
         <v>4</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="32" t="s">
+      <c r="E69" s="20"/>
+      <c r="F69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5699,23 +5712,23 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="20">
         <v>10</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="20">
         <v>5</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="32" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J70" s="7">
@@ -5726,23 +5739,23 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="20">
         <v>10</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="20">
         <v>6</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="E71" s="20"/>
+      <c r="F71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J71" s="7">
@@ -5753,23 +5766,23 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="20">
         <v>10</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="20">
         <v>7</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="32" t="s">
+      <c r="E72" s="20"/>
+      <c r="F72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J72" s="7">
@@ -5780,23 +5793,23 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="20">
         <v>10</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="20">
         <v>8</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="32" t="s">
+      <c r="E73" s="20"/>
+      <c r="F73" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="7">
@@ -5807,21 +5820,21 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="20">
         <v>11</v>
       </c>
-      <c r="C74" s="30">
-        <v>1</v>
-      </c>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="30" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J74" s="7">
@@ -5832,21 +5845,21 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="20">
         <v>11</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="20">
         <v>2</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="30" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J75" s="7">
@@ -5857,21 +5870,21 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="20">
         <v>11</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="20">
         <v>3</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="30" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J76" s="7">
@@ -5882,23 +5895,23 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="20">
         <v>11</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="20">
         <v>4</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="E77" s="20"/>
+      <c r="F77" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5906,23 +5919,23 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="20">
         <v>11</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="20">
         <v>5</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J78" s="7">
@@ -5933,23 +5946,23 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="20">
         <v>11</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="20">
         <v>6</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" s="32" t="s">
+      <c r="E79" s="20"/>
+      <c r="F79" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J79" s="7">
@@ -5960,23 +5973,23 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="20">
         <v>11</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="20">
         <v>7</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="32" t="s">
+      <c r="E80" s="20"/>
+      <c r="F80" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J80" s="7">
@@ -5987,23 +6000,23 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="20">
         <v>11</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="20">
         <v>8</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="32" t="s">
+      <c r="E81" s="20"/>
+      <c r="F81" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="H81" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J81" s="7">
@@ -6014,21 +6027,21 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="20">
         <v>12</v>
       </c>
-      <c r="C82" s="30">
-        <v>1</v>
-      </c>
-      <c r="D82" s="31" t="s">
+      <c r="C82" s="20">
+        <v>1</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="30" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J82" s="7">
@@ -6039,21 +6052,21 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="20">
         <v>12</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="20">
         <v>2</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="30" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J83" s="7">
@@ -6064,21 +6077,21 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="30">
+      <c r="B84" s="20">
         <v>12</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="20">
         <v>3</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="30" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J84" s="7">
@@ -6089,23 +6102,23 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="20">
         <v>12</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="20">
         <v>4</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" s="32" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6113,23 +6126,23 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="20">
         <v>12</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="20">
         <v>5</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" s="32" t="s">
+      <c r="E86" s="20"/>
+      <c r="F86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J86" s="7">
@@ -6140,23 +6153,23 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="20">
         <v>12</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="20">
         <v>6</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" s="32" t="s">
+      <c r="E87" s="20"/>
+      <c r="F87" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J87" s="7">
@@ -6167,23 +6180,23 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="30">
+      <c r="B88" s="20">
         <v>12</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="20">
         <v>7</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="32" t="s">
+      <c r="E88" s="20"/>
+      <c r="F88" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J88" s="7">
@@ -6194,23 +6207,23 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="30">
+      <c r="B89" s="20">
         <v>12</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="20">
         <v>8</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" s="32" t="s">
+      <c r="E89" s="20"/>
+      <c r="F89" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="30" t="s">
+      <c r="H89" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J89" s="7">
@@ -6221,21 +6234,21 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="20">
         <v>13</v>
       </c>
-      <c r="C90" s="30">
-        <v>1</v>
-      </c>
-      <c r="D90" s="31" t="s">
+      <c r="C90" s="20">
+        <v>1</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="30" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J90" s="7">
@@ -6246,21 +6259,21 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="20">
         <v>13</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="20">
         <v>2</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="30" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J91" s="7">
@@ -6271,21 +6284,21 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="20">
         <v>13</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="20">
         <v>3</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="30" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J92" s="7">
@@ -6296,23 +6309,23 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="30">
+      <c r="B93" s="20">
         <v>13</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="20">
         <v>4</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="E93" s="20"/>
+      <c r="F93" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="30" t="s">
+      <c r="H93" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6320,23 +6333,23 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="20">
         <v>13</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="20">
         <v>5</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="32" t="s">
+      <c r="E94" s="20"/>
+      <c r="F94" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J94" s="7">
@@ -6347,23 +6360,23 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="30">
+      <c r="B95" s="20">
         <v>13</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="20">
         <v>6</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="32" t="s">
+      <c r="E95" s="20"/>
+      <c r="F95" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J95" s="7">
@@ -6374,23 +6387,23 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" s="20">
         <v>13</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="20">
         <v>7</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="32" t="s">
+      <c r="E96" s="20"/>
+      <c r="F96" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J96" s="7">
@@ -6401,23 +6414,23 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" s="20">
         <v>13</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="20">
         <v>8</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="30"/>
-      <c r="F97" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="E97" s="20"/>
+      <c r="F97" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H97" s="30" t="s">
+      <c r="H97" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J97" s="7">
@@ -6428,21 +6441,21 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="20">
         <v>14</v>
       </c>
-      <c r="C98" s="30">
-        <v>1</v>
-      </c>
-      <c r="D98" s="31" t="s">
+      <c r="C98" s="20">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="30" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J98" s="7">
@@ -6453,21 +6466,21 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="20">
         <v>14</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="20">
         <v>2</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="30" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J99" s="7">
@@ -6478,21 +6491,21 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="20">
         <v>14</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="20">
         <v>3</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="30" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J100" s="7">
@@ -6503,23 +6516,23 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="20">
         <v>14</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="20">
         <v>4</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="32" t="s">
+      <c r="E101" s="20"/>
+      <c r="F101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6527,23 +6540,23 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="20">
         <v>14</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="20">
         <v>5</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="32" t="s">
+      <c r="E102" s="20"/>
+      <c r="F102" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="H102" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J102" s="7">
@@ -6554,23 +6567,23 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="20">
         <v>14</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="20">
         <v>6</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="32" t="s">
+      <c r="E103" s="20"/>
+      <c r="F103" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J103" s="7">
@@ -6581,23 +6594,23 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="20">
         <v>14</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="20">
         <v>7</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" s="32" t="s">
+      <c r="E104" s="20"/>
+      <c r="F104" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J104" s="7">
@@ -6608,23 +6621,23 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="20">
         <v>14</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="20">
         <v>8</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="32" t="s">
+      <c r="E105" s="20"/>
+      <c r="F105" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H105" s="30" t="s">
+      <c r="H105" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J105" s="7">
@@ -6635,21 +6648,21 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="20">
         <v>15</v>
       </c>
-      <c r="C106" s="30">
-        <v>1</v>
-      </c>
-      <c r="D106" s="31" t="s">
+      <c r="C106" s="20">
+        <v>1</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="30" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J106" s="7">
@@ -6660,21 +6673,21 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="20">
         <v>15</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="20">
         <v>2</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="30" t="s">
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J107" s="7">
@@ -6685,21 +6698,21 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="20">
         <v>15</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="20">
         <v>3</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="30" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J108" s="7">
@@ -6710,23 +6723,23 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="30">
+      <c r="B109" s="20">
         <v>15</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="20">
         <v>4</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="32" t="s">
+      <c r="E109" s="20"/>
+      <c r="F109" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H109" s="30" t="s">
+      <c r="H109" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6734,23 +6747,23 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="20">
         <v>15</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="20">
         <v>5</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="36" t="s">
+      <c r="E110" s="20"/>
+      <c r="F110" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G110" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J110" s="7">
@@ -6761,23 +6774,23 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="20">
         <v>15</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="20">
         <v>6</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="36" t="s">
+      <c r="E111" s="20"/>
+      <c r="F111" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G111" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J111" s="7">
@@ -6788,23 +6801,23 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="30">
+      <c r="B112" s="20">
         <v>15</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="20">
         <v>7</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" s="32" t="s">
+      <c r="E112" s="20"/>
+      <c r="F112" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J112" s="7">
@@ -6815,23 +6828,23 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="20">
         <v>15</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="20">
         <v>8</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="36" t="s">
+      <c r="E113" s="20"/>
+      <c r="F113" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="H113" s="30" t="s">
+      <c r="H113" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J113" s="7">
@@ -6842,21 +6855,21 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="20">
         <v>16</v>
       </c>
-      <c r="C114" s="30">
-        <v>1</v>
-      </c>
-      <c r="D114" s="31" t="s">
+      <c r="C114" s="20">
+        <v>1</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="30" t="s">
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J114" s="7">
@@ -6867,21 +6880,21 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="30">
+      <c r="B115" s="20">
         <v>16</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="20">
         <v>2</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="30" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J115" s="7">
@@ -6892,21 +6905,21 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="30">
+      <c r="B116" s="20">
         <v>16</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="20">
         <v>3</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="30" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J116" s="7">
@@ -6917,23 +6930,23 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="30">
+      <c r="B117" s="20">
         <v>16</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="20">
         <v>4</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" s="32" t="s">
+      <c r="E117" s="20"/>
+      <c r="F117" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H117" s="30" t="s">
+      <c r="H117" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6941,23 +6954,23 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="30">
+      <c r="B118" s="20">
         <v>16</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="20">
         <v>5</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E118" s="30"/>
-      <c r="F118" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="32" t="s">
+      <c r="E118" s="20"/>
+      <c r="F118" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J118" s="7">
@@ -6968,23 +6981,23 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="20">
         <v>16</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="20">
         <v>6</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="25" t="s">
+      <c r="E119" s="20"/>
+      <c r="F119" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J119" s="7">
@@ -6995,23 +7008,23 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="20">
         <v>16</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="20">
         <v>7</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" s="32" t="s">
+      <c r="E120" s="20"/>
+      <c r="F120" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J120" s="7">
@@ -7022,23 +7035,23 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B121" s="20">
         <v>16</v>
       </c>
-      <c r="C121" s="30">
+      <c r="C121" s="20">
         <v>8</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="25" t="s">
+      <c r="E121" s="20"/>
+      <c r="F121" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H121" s="30" t="s">
+      <c r="H121" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J121" s="7">
@@ -7049,21 +7062,21 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="30">
+      <c r="B122" s="20">
         <v>17</v>
       </c>
-      <c r="C122" s="30">
-        <v>1</v>
-      </c>
-      <c r="D122" s="31" t="s">
+      <c r="C122" s="20">
+        <v>1</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J122" s="7">
@@ -7074,21 +7087,21 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="20">
         <v>17</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123" s="20">
         <v>2</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J123" s="7">
@@ -7099,20 +7112,20 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" s="20">
         <v>17</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="20">
         <v>3</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32" t="s">
+      <c r="G124" s="22"/>
+      <c r="H124" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J124" s="7">
@@ -7123,23 +7136,23 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="30">
+      <c r="B125" s="20">
         <v>17</v>
       </c>
-      <c r="C125" s="30">
+      <c r="C125" s="20">
         <v>4</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="30"/>
-      <c r="F125" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="32" t="s">
+      <c r="E125" s="20"/>
+      <c r="F125" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H125" s="32" t="s">
+      <c r="H125" s="22" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7147,23 +7160,23 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="30">
+      <c r="B126" s="20">
         <v>17</v>
       </c>
-      <c r="C126" s="30">
+      <c r="C126" s="20">
         <v>5</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="36" t="s">
+      <c r="E126" s="20"/>
+      <c r="F126" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="16" t="s">
         <v>198</v>
       </c>
       <c r="J126" s="7">
@@ -7174,23 +7187,23 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="30">
+      <c r="B127" s="20">
         <v>17</v>
       </c>
-      <c r="C127" s="30">
+      <c r="C127" s="20">
         <v>6</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="36" t="s">
+      <c r="E127" s="20"/>
+      <c r="F127" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G127" s="32" t="s">
+      <c r="G127" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="16" t="s">
         <v>199</v>
       </c>
       <c r="J127" s="7">
@@ -7201,23 +7214,23 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="30">
+      <c r="B128" s="20">
         <v>17</v>
       </c>
-      <c r="C128" s="30">
+      <c r="C128" s="20">
         <v>7</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" s="32" t="s">
+      <c r="E128" s="20"/>
+      <c r="F128" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="16" t="s">
         <v>196</v>
       </c>
       <c r="J128" s="7">
@@ -7228,23 +7241,23 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="30">
+      <c r="B129" s="20">
         <v>17</v>
       </c>
-      <c r="C129" s="30">
+      <c r="C129" s="20">
         <v>8</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="30"/>
-      <c r="F129" s="36" t="s">
+      <c r="E129" s="20"/>
+      <c r="F129" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H129" s="32" t="s">
+      <c r="H129" s="22" t="s">
         <v>195</v>
       </c>
       <c r="J129" s="7">
@@ -7255,21 +7268,21 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="30">
+      <c r="B130" s="20">
         <v>18</v>
       </c>
-      <c r="C130" s="30">
-        <v>1</v>
-      </c>
-      <c r="D130" s="31" t="s">
+      <c r="C130" s="20">
+        <v>1</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32" t="s">
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J130" s="7">
@@ -7280,21 +7293,21 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="30">
+      <c r="B131" s="20">
         <v>18</v>
       </c>
-      <c r="C131" s="30">
+      <c r="C131" s="20">
         <v>2</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32" t="s">
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J131" s="7">
@@ -7305,21 +7318,21 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="30">
+      <c r="B132" s="20">
         <v>18</v>
       </c>
-      <c r="C132" s="30">
+      <c r="C132" s="20">
         <v>3</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32" t="s">
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J132" s="7">
@@ -7330,23 +7343,23 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="30">
+      <c r="B133" s="20">
         <v>18</v>
       </c>
-      <c r="C133" s="30">
+      <c r="C133" s="20">
         <v>4</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="30"/>
-      <c r="F133" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="32" t="s">
+      <c r="E133" s="20"/>
+      <c r="F133" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7354,23 +7367,23 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="30">
+      <c r="B134" s="20">
         <v>18</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C134" s="20">
         <v>5</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E134" s="30"/>
-      <c r="F134" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" s="32" t="s">
+      <c r="E134" s="20"/>
+      <c r="F134" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="16" t="s">
         <v>200</v>
       </c>
       <c r="J134" s="7">
@@ -7381,23 +7394,23 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="30">
+      <c r="B135" s="20">
         <v>18</v>
       </c>
-      <c r="C135" s="30">
+      <c r="C135" s="20">
         <v>6</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E135" s="30"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="20"/>
+      <c r="F135" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="16" t="s">
         <v>197</v>
       </c>
       <c r="J135" s="7">
@@ -7408,23 +7421,23 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="30">
+      <c r="B136" s="20">
         <v>18</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="20">
         <v>7</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E136" s="30"/>
-      <c r="F136" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G136" s="32" t="s">
+      <c r="E136" s="20"/>
+      <c r="F136" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="16" t="s">
         <v>201</v>
       </c>
       <c r="J136" s="7">
@@ -7435,23 +7448,23 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="30">
+      <c r="B137" s="20">
         <v>18</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="20">
         <v>8</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="20"/>
+      <c r="F137" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G137" s="32" t="s">
+      <c r="G137" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H137" s="32" t="s">
+      <c r="H137" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J137" s="7">
@@ -7462,21 +7475,21 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="30">
+      <c r="B138" s="20">
         <v>19</v>
       </c>
-      <c r="C138" s="30">
-        <v>1</v>
-      </c>
-      <c r="D138" s="31" t="s">
+      <c r="C138" s="20">
+        <v>1</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32" t="s">
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J138" s="7">
@@ -7487,21 +7500,21 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="30">
+      <c r="B139" s="20">
         <v>19</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="20">
         <v>2</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32" t="s">
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J139" s="7">
@@ -7512,20 +7525,20 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="30">
+      <c r="B140" s="20">
         <v>19</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="20">
         <v>3</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32" t="s">
+      <c r="G140" s="22"/>
+      <c r="H140" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J140" s="7">
@@ -7536,23 +7549,23 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="20">
         <v>19</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="20">
         <v>4</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E141" s="30"/>
-      <c r="F141" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="32" t="s">
+      <c r="E141" s="20"/>
+      <c r="F141" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H141" s="32" t="s">
+      <c r="H141" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7560,23 +7573,23 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="20">
         <v>19</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="20">
         <v>5</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E142" s="30"/>
-      <c r="F142" s="36" t="s">
+      <c r="E142" s="20"/>
+      <c r="F142" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J142" s="7">
@@ -7587,23 +7600,23 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="30">
+      <c r="B143" s="20">
         <v>19</v>
       </c>
-      <c r="C143" s="30">
+      <c r="C143" s="20">
         <v>6</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E143" s="30"/>
-      <c r="F143" s="36" t="s">
+      <c r="E143" s="20"/>
+      <c r="F143" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H143" s="25" t="s">
+      <c r="H143" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J143" s="7">
@@ -7614,23 +7627,23 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="30">
+      <c r="B144" s="20">
         <v>19</v>
       </c>
-      <c r="C144" s="30">
+      <c r="C144" s="20">
         <v>7</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G144" s="32" t="s">
+      <c r="E144" s="20"/>
+      <c r="F144" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H144" s="25" t="s">
+      <c r="H144" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J144" s="7">
@@ -7641,23 +7654,23 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="30">
+      <c r="B145" s="20">
         <v>19</v>
       </c>
-      <c r="C145" s="30">
+      <c r="C145" s="20">
         <v>8</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="36" t="s">
+      <c r="E145" s="20"/>
+      <c r="F145" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H145" s="32" t="s">
+      <c r="H145" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J145" s="7">
@@ -7668,21 +7681,21 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="30">
+      <c r="B146" s="20">
         <v>20</v>
       </c>
-      <c r="C146" s="30">
-        <v>1</v>
-      </c>
-      <c r="D146" s="31" t="s">
+      <c r="C146" s="20">
+        <v>1</v>
+      </c>
+      <c r="D146" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32" t="s">
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J146" s="7">
@@ -7693,21 +7706,21 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="30">
+      <c r="B147" s="20">
         <v>20</v>
       </c>
-      <c r="C147" s="30">
+      <c r="C147" s="20">
         <v>2</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32" t="s">
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J147" s="7">
@@ -7718,21 +7731,21 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="30">
+      <c r="B148" s="20">
         <v>20</v>
       </c>
-      <c r="C148" s="30">
+      <c r="C148" s="20">
         <v>3</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32" t="s">
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J148" s="7">
@@ -7743,23 +7756,23 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="30">
+      <c r="B149" s="20">
         <v>20</v>
       </c>
-      <c r="C149" s="30">
+      <c r="C149" s="20">
         <v>4</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="32" t="s">
+      <c r="E149" s="20"/>
+      <c r="F149" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G149" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H149" s="32" t="s">
+      <c r="H149" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7767,23 +7780,23 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="30">
+      <c r="B150" s="20">
         <v>20</v>
       </c>
-      <c r="C150" s="30">
+      <c r="C150" s="20">
         <v>5</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="32" t="s">
+      <c r="E150" s="20"/>
+      <c r="F150" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J150" s="7">
@@ -7794,23 +7807,23 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="30">
+      <c r="B151" s="20">
         <v>20</v>
       </c>
-      <c r="C151" s="30">
+      <c r="C151" s="20">
         <v>6</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="20"/>
+      <c r="F151" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J151" s="7">
@@ -7821,23 +7834,23 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="30">
+      <c r="B152" s="20">
         <v>20</v>
       </c>
-      <c r="C152" s="30">
+      <c r="C152" s="20">
         <v>7</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E152" s="30"/>
-      <c r="F152" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="32" t="s">
+      <c r="E152" s="20"/>
+      <c r="F152" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J152" s="7">
@@ -7848,23 +7861,23 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="30">
+      <c r="B153" s="20">
         <v>20</v>
       </c>
-      <c r="C153" s="30">
+      <c r="C153" s="20">
         <v>8</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="20"/>
+      <c r="F153" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G153" s="32" t="s">
+      <c r="G153" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H153" s="32" t="s">
+      <c r="H153" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J153" s="7">
@@ -7875,23 +7888,23 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="30">
+      <c r="B154" s="20">
         <v>21</v>
       </c>
-      <c r="C154" s="30">
-        <v>1</v>
-      </c>
-      <c r="D154" s="31" t="s">
+      <c r="C154" s="20">
+        <v>1</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="32" t="s">
+      <c r="E154" s="20"/>
+      <c r="F154" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="30" t="s">
+      <c r="H154" s="20" t="s">
         <v>227</v>
       </c>
       <c r="J154" s="7">
@@ -7902,23 +7915,23 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="30">
+      <c r="B155" s="20">
         <v>22</v>
       </c>
-      <c r="C155" s="30">
-        <v>1</v>
-      </c>
-      <c r="D155" s="31" t="s">
+      <c r="C155" s="20">
+        <v>1</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="32" t="s">
+      <c r="E155" s="20"/>
+      <c r="F155" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H155" s="30" t="s">
+      <c r="H155" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J155" s="7">
@@ -7929,23 +7942,23 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="30">
+      <c r="B156" s="20">
         <v>23</v>
       </c>
-      <c r="C156" s="30">
-        <v>1</v>
-      </c>
-      <c r="D156" s="31" t="s">
+      <c r="C156" s="20">
+        <v>1</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="32" t="s">
+      <c r="E156" s="20"/>
+      <c r="F156" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="30" t="s">
+      <c r="H156" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J156" s="7">
@@ -7956,23 +7969,23 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="30">
+      <c r="B157" s="20">
         <v>24</v>
       </c>
-      <c r="C157" s="30">
-        <v>1</v>
-      </c>
-      <c r="D157" s="31" t="s">
+      <c r="C157" s="20">
+        <v>1</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E157" s="30"/>
-      <c r="F157" s="32" t="s">
+      <c r="E157" s="20"/>
+      <c r="F157" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G157" s="32" t="s">
+      <c r="G157" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H157" s="30" t="s">
+      <c r="H157" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J157" s="7">
@@ -7983,23 +7996,23 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="30">
+      <c r="B158" s="20">
         <v>25</v>
       </c>
-      <c r="C158" s="30">
-        <v>1</v>
-      </c>
-      <c r="D158" s="31" t="s">
+      <c r="C158" s="20">
+        <v>1</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E158" s="30"/>
-      <c r="F158" s="32" t="s">
+      <c r="E158" s="20"/>
+      <c r="F158" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="H158" s="30" t="s">
+      <c r="H158" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J158" s="7">
@@ -8010,23 +8023,23 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="30">
+      <c r="B159" s="20">
         <v>26</v>
       </c>
-      <c r="C159" s="30">
-        <v>1</v>
-      </c>
-      <c r="D159" s="31" t="s">
+      <c r="C159" s="20">
+        <v>1</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E159" s="30"/>
-      <c r="F159" s="32" t="s">
+      <c r="E159" s="20"/>
+      <c r="F159" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="H159" s="30" t="s">
+      <c r="H159" s="20" t="s">
         <v>238</v>
       </c>
       <c r="J159" s="7">
@@ -8037,23 +8050,23 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="30">
+      <c r="B160" s="20">
         <v>27</v>
       </c>
-      <c r="C160" s="30">
-        <v>1</v>
-      </c>
-      <c r="D160" s="31" t="s">
+      <c r="C160" s="20">
+        <v>1</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E160" s="30"/>
-      <c r="F160" s="32" t="s">
+      <c r="E160" s="20"/>
+      <c r="F160" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H160" s="30" t="s">
+      <c r="H160" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J160" s="7">
@@ -8064,23 +8077,23 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="30">
+      <c r="B161" s="20">
         <v>28</v>
       </c>
-      <c r="C161" s="30">
-        <v>1</v>
-      </c>
-      <c r="D161" s="31" t="s">
+      <c r="C161" s="20">
+        <v>1</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="30"/>
-      <c r="F161" s="32" t="s">
+      <c r="E161" s="20"/>
+      <c r="F161" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H161" s="30" t="s">
+      <c r="H161" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J161" s="7">
@@ -8091,23 +8104,23 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="30">
+      <c r="B162" s="20">
         <v>29</v>
       </c>
-      <c r="C162" s="30">
-        <v>1</v>
-      </c>
-      <c r="D162" s="31" t="s">
+      <c r="C162" s="20">
+        <v>1</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E162" s="30"/>
-      <c r="F162" s="32" t="s">
+      <c r="E162" s="20"/>
+      <c r="F162" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G162" s="32" t="s">
+      <c r="G162" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H162" s="30" t="s">
+      <c r="H162" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J162" s="7">
@@ -8118,21 +8131,21 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="30">
+      <c r="B163" s="20">
         <v>30</v>
       </c>
-      <c r="C163" s="30">
-        <v>1</v>
-      </c>
-      <c r="D163" s="31" t="s">
+      <c r="C163" s="20">
+        <v>1</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="E163" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32" t="s">
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J163" s="7">
@@ -8143,21 +8156,21 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="30">
+      <c r="B164" s="20">
         <v>30</v>
       </c>
-      <c r="C164" s="30">
+      <c r="C164" s="20">
         <v>2</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32" t="s">
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J164" s="7">
@@ -8168,20 +8181,20 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="30">
+      <c r="B165" s="20">
         <v>30</v>
       </c>
-      <c r="C165" s="30">
+      <c r="C165" s="20">
         <v>3</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E165" s="30" t="s">
+      <c r="E165" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32" t="s">
+      <c r="G165" s="22"/>
+      <c r="H165" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J165" s="7">
@@ -8192,23 +8205,23 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="30">
+      <c r="B166" s="20">
         <v>30</v>
       </c>
-      <c r="C166" s="30">
+      <c r="C166" s="20">
         <v>4</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" s="32" t="s">
+      <c r="E166" s="20"/>
+      <c r="F166" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8216,23 +8229,23 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="30">
+      <c r="B167" s="20">
         <v>30</v>
       </c>
-      <c r="C167" s="30">
+      <c r="C167" s="20">
         <v>5</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E167" s="30"/>
-      <c r="F167" s="36" t="s">
+      <c r="E167" s="20"/>
+      <c r="F167" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H167" s="25" t="s">
+      <c r="H167" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J167" s="7">
@@ -8243,23 +8256,23 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="30">
+      <c r="B168" s="20">
         <v>30</v>
       </c>
-      <c r="C168" s="30">
+      <c r="C168" s="20">
         <v>6</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E168" s="30"/>
-      <c r="F168" s="36" t="s">
+      <c r="E168" s="20"/>
+      <c r="F168" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H168" s="25" t="s">
+      <c r="H168" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J168" s="7">
@@ -8270,23 +8283,23 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="30">
+      <c r="B169" s="20">
         <v>30</v>
       </c>
-      <c r="C169" s="30">
+      <c r="C169" s="20">
         <v>7</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" s="32" t="s">
+      <c r="E169" s="20"/>
+      <c r="F169" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J169" s="7">
@@ -8297,23 +8310,23 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="30">
+      <c r="B170" s="20">
         <v>30</v>
       </c>
-      <c r="C170" s="30">
+      <c r="C170" s="20">
         <v>8</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="36" t="s">
+      <c r="E170" s="20"/>
+      <c r="F170" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J170" s="7">
@@ -8324,21 +8337,21 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="30">
+      <c r="B171" s="20">
         <v>31</v>
       </c>
-      <c r="C171" s="30">
-        <v>1</v>
-      </c>
-      <c r="D171" s="31" t="s">
+      <c r="C171" s="20">
+        <v>1</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32" t="s">
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J171" s="7">
@@ -8349,21 +8362,21 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="30">
+      <c r="B172" s="20">
         <v>31</v>
       </c>
-      <c r="C172" s="30">
+      <c r="C172" s="20">
         <v>2</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32" t="s">
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J172" s="7">
@@ -8374,21 +8387,21 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="30">
+      <c r="B173" s="20">
         <v>31</v>
       </c>
-      <c r="C173" s="30">
+      <c r="C173" s="20">
         <v>3</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32" t="s">
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J173" s="7">
@@ -8399,23 +8412,23 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="30">
+      <c r="B174" s="20">
         <v>31</v>
       </c>
-      <c r="C174" s="30">
+      <c r="C174" s="20">
         <v>4</v>
       </c>
-      <c r="D174" s="31" t="s">
+      <c r="D174" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E174" s="30"/>
-      <c r="F174" s="32" t="s">
+      <c r="E174" s="20"/>
+      <c r="F174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G174" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8423,23 +8436,23 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="30">
+      <c r="B175" s="20">
         <v>31</v>
       </c>
-      <c r="C175" s="30">
+      <c r="C175" s="20">
         <v>5</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E175" s="30"/>
-      <c r="F175" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" s="32" t="s">
+      <c r="E175" s="20"/>
+      <c r="F175" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H175" s="25" t="s">
+      <c r="H175" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J175" s="7">
@@ -8450,23 +8463,23 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="30">
+      <c r="B176" s="20">
         <v>31</v>
       </c>
-      <c r="C176" s="30">
+      <c r="C176" s="20">
         <v>6</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E176" s="30"/>
-      <c r="F176" s="25" t="s">
+      <c r="E176" s="20"/>
+      <c r="F176" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G176" s="32" t="s">
+      <c r="G176" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H176" s="25" t="s">
+      <c r="H176" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J176" s="7">
@@ -8477,23 +8490,23 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="30">
+      <c r="B177" s="20">
         <v>31</v>
       </c>
-      <c r="C177" s="30">
+      <c r="C177" s="20">
         <v>7</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E177" s="30"/>
-      <c r="F177" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" s="32" t="s">
+      <c r="E177" s="20"/>
+      <c r="F177" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H177" s="25" t="s">
+      <c r="H177" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J177" s="7">
@@ -8504,23 +8517,23 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="30">
+      <c r="B178" s="20">
         <v>31</v>
       </c>
-      <c r="C178" s="30">
+      <c r="C178" s="20">
         <v>8</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E178" s="30"/>
-      <c r="F178" s="25" t="s">
+      <c r="E178" s="20"/>
+      <c r="F178" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J178" s="7">
@@ -8531,21 +8544,21 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="30">
+      <c r="B179" s="20">
         <v>32</v>
       </c>
-      <c r="C179" s="30">
-        <v>1</v>
-      </c>
-      <c r="D179" s="31" t="s">
+      <c r="C179" s="20">
+        <v>1</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E179" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32" t="s">
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J179" s="7">
@@ -8556,21 +8569,21 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="30">
+      <c r="B180" s="20">
         <v>32</v>
       </c>
-      <c r="C180" s="30">
+      <c r="C180" s="20">
         <v>2</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32" t="s">
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J180" s="7">
@@ -8581,20 +8594,20 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="30">
+      <c r="B181" s="20">
         <v>32</v>
       </c>
-      <c r="C181" s="30">
+      <c r="C181" s="20">
         <v>3</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32" t="s">
+      <c r="G181" s="22"/>
+      <c r="H181" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J181" s="7">
@@ -8605,23 +8618,23 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="30">
+      <c r="B182" s="20">
         <v>32</v>
       </c>
-      <c r="C182" s="30">
+      <c r="C182" s="20">
         <v>4</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G182" s="32" t="s">
+      <c r="E182" s="20"/>
+      <c r="F182" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8629,23 +8642,23 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="30">
+      <c r="B183" s="20">
         <v>32</v>
       </c>
-      <c r="C183" s="30">
+      <c r="C183" s="20">
         <v>5</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="36" t="s">
+      <c r="E183" s="20"/>
+      <c r="F183" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="H183" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J183" s="7">
@@ -8656,23 +8669,23 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="30">
+      <c r="B184" s="20">
         <v>32</v>
       </c>
-      <c r="C184" s="30">
+      <c r="C184" s="20">
         <v>6</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E184" s="30"/>
-      <c r="F184" s="36" t="s">
+      <c r="E184" s="20"/>
+      <c r="F184" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H184" s="25" t="s">
+      <c r="H184" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J184" s="7">
@@ -8683,23 +8696,23 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="30">
+      <c r="B185" s="20">
         <v>32</v>
       </c>
-      <c r="C185" s="30">
+      <c r="C185" s="20">
         <v>7</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E185" s="30"/>
-      <c r="F185" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G185" s="32" t="s">
+      <c r="E185" s="20"/>
+      <c r="F185" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H185" s="25" t="s">
+      <c r="H185" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J185" s="7">
@@ -8710,23 +8723,23 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="30">
+      <c r="B186" s="20">
         <v>32</v>
       </c>
-      <c r="C186" s="30">
+      <c r="C186" s="20">
         <v>8</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E186" s="30"/>
-      <c r="F186" s="36" t="s">
+      <c r="E186" s="20"/>
+      <c r="F186" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G186" s="32" t="s">
+      <c r="G186" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H186" s="32" t="s">
+      <c r="H186" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J186" s="7">
@@ -8737,21 +8750,21 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="30">
+      <c r="B187" s="20">
         <v>33</v>
       </c>
-      <c r="C187" s="30">
-        <v>1</v>
-      </c>
-      <c r="D187" s="31" t="s">
+      <c r="C187" s="20">
+        <v>1</v>
+      </c>
+      <c r="D187" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32" t="s">
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J187" s="7">
@@ -8762,21 +8775,21 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="30">
+      <c r="B188" s="20">
         <v>33</v>
       </c>
-      <c r="C188" s="30">
+      <c r="C188" s="20">
         <v>2</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E188" s="30" t="s">
+      <c r="E188" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32" t="s">
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J188" s="7">
@@ -8787,21 +8800,21 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="30">
+      <c r="B189" s="20">
         <v>33</v>
       </c>
-      <c r="C189" s="30">
+      <c r="C189" s="20">
         <v>3</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32" t="s">
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J189" s="7">
@@ -8812,23 +8825,23 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="30">
+      <c r="B190" s="20">
         <v>33</v>
       </c>
-      <c r="C190" s="30">
+      <c r="C190" s="20">
         <v>4</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E190" s="30"/>
-      <c r="F190" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G190" s="32" t="s">
+      <c r="E190" s="20"/>
+      <c r="F190" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H190" s="32" t="s">
+      <c r="H190" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8836,23 +8849,23 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="30">
+      <c r="B191" s="20">
         <v>33</v>
       </c>
-      <c r="C191" s="30">
+      <c r="C191" s="20">
         <v>5</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E191" s="30"/>
-      <c r="F191" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" s="32" t="s">
+      <c r="E191" s="20"/>
+      <c r="F191" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H191" s="25" t="s">
+      <c r="H191" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J191" s="7">
@@ -8863,23 +8876,23 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="30">
+      <c r="B192" s="20">
         <v>33</v>
       </c>
-      <c r="C192" s="30">
+      <c r="C192" s="20">
         <v>6</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D192" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E192" s="30"/>
-      <c r="F192" s="25" t="s">
+      <c r="E192" s="20"/>
+      <c r="F192" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G192" s="32" t="s">
+      <c r="G192" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J192" s="7">
@@ -8890,23 +8903,23 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="30">
+      <c r="B193" s="20">
         <v>33</v>
       </c>
-      <c r="C193" s="30">
+      <c r="C193" s="20">
         <v>7</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D193" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E193" s="30"/>
-      <c r="F193" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G193" s="32" t="s">
+      <c r="E193" s="20"/>
+      <c r="F193" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J193" s="7">
@@ -8917,23 +8930,23 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="30">
+      <c r="B194" s="20">
         <v>33</v>
       </c>
-      <c r="C194" s="30">
+      <c r="C194" s="20">
         <v>8</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E194" s="30"/>
-      <c r="F194" s="25" t="s">
+      <c r="E194" s="20"/>
+      <c r="F194" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G194" s="32" t="s">
+      <c r="G194" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H194" s="32" t="s">
+      <c r="H194" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J194" s="7">
@@ -8944,25 +8957,24 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="45">
+      <c r="B195" s="15">
         <v>34</v>
       </c>
-      <c r="C195" s="18">
-        <v>1</v>
-      </c>
-      <c r="D195" s="33" t="s">
+      <c r="C195" s="20">
+        <v>1</v>
+      </c>
+      <c r="D195" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16">
+      <c r="J195" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8970,25 +8982,24 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="45">
+      <c r="B196" s="15">
         <v>34</v>
       </c>
-      <c r="C196" s="18">
+      <c r="C196" s="20">
         <v>2</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I196" s="16"/>
-      <c r="J196" s="16">
+      <c r="J196" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8996,27 +9007,26 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="45">
+      <c r="B197" s="15">
         <v>34</v>
       </c>
-      <c r="C197" s="18">
+      <c r="C197" s="20">
         <v>3</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E197" s="18"/>
-      <c r="F197" s="53" t="s">
+      <c r="E197" s="20"/>
+      <c r="F197" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G197" s="19" t="s">
+      <c r="G197" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="H197" s="19" t="s">
+      <c r="H197" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I197" s="16"/>
-      <c r="J197" s="16">
+      <c r="J197" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9024,53 +9034,50 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="45">
+      <c r="B198" s="15">
         <v>34</v>
       </c>
-      <c r="C198" s="18">
+      <c r="C198" s="20">
         <v>4</v>
       </c>
-      <c r="D198" s="33" t="s">
+      <c r="D198" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E198" s="18"/>
-      <c r="F198" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" s="19" t="s">
+      <c r="E198" s="20"/>
+      <c r="F198" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H198" s="19" t="s">
+      <c r="H198" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="I198" s="16"/>
-      <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="45">
+      <c r="B199" s="15">
         <v>34</v>
       </c>
-      <c r="C199" s="18">
+      <c r="C199" s="20">
         <v>5</v>
       </c>
-      <c r="D199" s="33" t="s">
+      <c r="D199" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E199" s="18"/>
-      <c r="F199" s="37" t="s">
+      <c r="E199" s="20"/>
+      <c r="F199" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G199" s="19" t="s">
+      <c r="G199" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H199" s="17" t="s">
+      <c r="H199" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I199" s="16"/>
-      <c r="J199" s="16">
+      <c r="J199" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9078,27 +9085,26 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="45">
+      <c r="B200" s="15">
         <v>34</v>
       </c>
-      <c r="C200" s="18">
+      <c r="C200" s="20">
         <v>6</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="D200" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E200" s="18"/>
-      <c r="F200" s="37" t="s">
+      <c r="E200" s="20"/>
+      <c r="F200" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G200" s="19" t="s">
+      <c r="G200" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H200" s="17" t="s">
+      <c r="H200" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16">
+      <c r="J200" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9106,27 +9112,26 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="45">
+      <c r="B201" s="15">
         <v>34</v>
       </c>
-      <c r="C201" s="18">
+      <c r="C201" s="20">
         <v>7</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E201" s="18"/>
-      <c r="F201" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" s="19" t="s">
+      <c r="E201" s="20"/>
+      <c r="F201" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H201" s="17" t="s">
+      <c r="H201" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16">
+      <c r="J201" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9134,27 +9139,26 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="45">
+      <c r="B202" s="15">
         <v>34</v>
       </c>
-      <c r="C202" s="18">
+      <c r="C202" s="20">
         <v>8</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E202" s="18"/>
-      <c r="F202" s="37" t="s">
+      <c r="E202" s="20"/>
+      <c r="F202" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H202" s="19" t="s">
+      <c r="H202" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16">
+      <c r="J202" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9162,25 +9166,24 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="34">
+      <c r="B203" s="15">
         <v>35</v>
       </c>
-      <c r="C203" s="21">
-        <v>1</v>
-      </c>
-      <c r="D203" s="22" t="s">
+      <c r="C203" s="20">
+        <v>1</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20">
+      <c r="J203" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9188,25 +9191,24 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="34">
+      <c r="B204" s="15">
         <v>35</v>
       </c>
-      <c r="C204" s="21">
+      <c r="C204" s="20">
         <v>2</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="D204" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20">
+      <c r="J204" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9214,27 +9216,26 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="34">
+      <c r="B205" s="15">
         <v>35</v>
       </c>
-      <c r="C205" s="21">
+      <c r="C205" s="20">
         <v>3</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E205" s="21"/>
-      <c r="F205" s="52" t="s">
+      <c r="E205" s="20"/>
+      <c r="F205" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="G205" s="23" t="s">
+      <c r="G205" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="H205" s="23" t="s">
+      <c r="H205" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20">
+      <c r="J205" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9242,53 +9243,50 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="34">
+      <c r="B206" s="15">
         <v>35</v>
       </c>
-      <c r="C206" s="21">
+      <c r="C206" s="20">
         <v>4</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="D206" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E206" s="21"/>
-      <c r="F206" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" s="23" t="s">
+      <c r="E206" s="20"/>
+      <c r="F206" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H206" s="23" t="s">
+      <c r="H206" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="15">
         <v>35</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="20">
         <v>5</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D207" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E207" s="21"/>
-      <c r="F207" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G207" s="23" t="s">
+      <c r="E207" s="20"/>
+      <c r="F207" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H207" s="24" t="s">
+      <c r="H207" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20">
+      <c r="J207" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9296,27 +9294,26 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="15">
         <v>35</v>
       </c>
-      <c r="C208" s="21">
+      <c r="C208" s="20">
         <v>6</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E208" s="21"/>
-      <c r="F208" s="24" t="s">
+      <c r="E208" s="20"/>
+      <c r="F208" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G208" s="23" t="s">
+      <c r="G208" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H208" s="24" t="s">
+      <c r="H208" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20">
+      <c r="J208" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9324,27 +9321,26 @@
       <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="34">
+      <c r="B209" s="15">
         <v>35</v>
       </c>
-      <c r="C209" s="21">
+      <c r="C209" s="20">
         <v>7</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E209" s="21"/>
-      <c r="F209" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G209" s="23" t="s">
+      <c r="E209" s="20"/>
+      <c r="F209" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H209" s="24" t="s">
+      <c r="H209" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20">
+      <c r="J209" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9352,27 +9348,26 @@
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="15">
         <v>35</v>
       </c>
-      <c r="C210" s="21">
+      <c r="C210" s="20">
         <v>8</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E210" s="21"/>
-      <c r="F210" s="24" t="s">
+      <c r="E210" s="20"/>
+      <c r="F210" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G210" s="23" t="s">
+      <c r="G210" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H210" s="23" t="s">
+      <c r="H210" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20">
+      <c r="J210" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9380,27 +9375,26 @@
       <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="62">
+      <c r="B211" s="20">
         <v>36</v>
       </c>
-      <c r="C211" s="62">
-        <v>1</v>
-      </c>
-      <c r="D211" s="63" t="s">
+      <c r="C211" s="20">
+        <v>1</v>
+      </c>
+      <c r="D211" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E211" s="62"/>
-      <c r="F211" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G211" s="64" t="s">
+      <c r="E211" s="20"/>
+      <c r="F211" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H211" s="62" t="s">
+      <c r="H211" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I211" s="57"/>
-      <c r="J211" s="57">
+      <c r="J211" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9408,27 +9402,26 @@
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="62">
+      <c r="B212" s="20">
         <v>36</v>
       </c>
-      <c r="C212" s="62">
+      <c r="C212" s="20">
         <v>2</v>
       </c>
-      <c r="D212" s="63" t="s">
+      <c r="D212" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E212" s="62"/>
-      <c r="F212" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G212" s="64" t="s">
+      <c r="E212" s="20"/>
+      <c r="F212" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H212" s="62" t="s">
+      <c r="H212" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I212" s="57"/>
-      <c r="J212" s="57">
+      <c r="J212" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9436,27 +9429,26 @@
       <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" s="62">
+      <c r="B213" s="20">
         <v>36</v>
       </c>
-      <c r="C213" s="62">
+      <c r="C213" s="20">
         <v>3</v>
       </c>
-      <c r="D213" s="63" t="s">
+      <c r="D213" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E213" s="62"/>
-      <c r="F213" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G213" s="64" t="s">
+      <c r="E213" s="20"/>
+      <c r="F213" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H213" s="62" t="s">
+      <c r="H213" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I213" s="57"/>
-      <c r="J213" s="57">
+      <c r="J213" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9464,27 +9456,26 @@
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="62">
+      <c r="B214" s="20">
         <v>37</v>
       </c>
-      <c r="C214" s="62">
-        <v>1</v>
-      </c>
-      <c r="D214" s="63" t="s">
+      <c r="C214" s="20">
+        <v>1</v>
+      </c>
+      <c r="D214" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E214" s="62"/>
-      <c r="F214" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" s="64" t="s">
+      <c r="E214" s="20"/>
+      <c r="F214" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H214" s="62" t="s">
+      <c r="H214" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I214" s="57"/>
-      <c r="J214" s="57">
+      <c r="J214" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9492,27 +9483,26 @@
       <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" s="62">
+      <c r="B215" s="20">
         <v>37</v>
       </c>
-      <c r="C215" s="62">
+      <c r="C215" s="20">
         <v>2</v>
       </c>
-      <c r="D215" s="63" t="s">
+      <c r="D215" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E215" s="62"/>
-      <c r="F215" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G215" s="64" t="s">
+      <c r="E215" s="20"/>
+      <c r="F215" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H215" s="62" t="s">
+      <c r="H215" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I215" s="57"/>
-      <c r="J215" s="57">
+      <c r="J215" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9520,27 +9510,26 @@
       <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" s="62">
+      <c r="B216" s="20">
         <v>37</v>
       </c>
-      <c r="C216" s="62">
+      <c r="C216" s="20">
         <v>3</v>
       </c>
-      <c r="D216" s="63" t="s">
+      <c r="D216" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E216" s="62"/>
-      <c r="F216" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" s="64" t="s">
+      <c r="E216" s="20"/>
+      <c r="F216" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H216" s="62" t="s">
+      <c r="H216" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I216" s="57"/>
-      <c r="J216" s="57">
+      <c r="J216" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9548,27 +9537,26 @@
       <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" s="62">
+      <c r="B217" s="20">
         <v>38</v>
       </c>
-      <c r="C217" s="62">
-        <v>1</v>
-      </c>
-      <c r="D217" s="63" t="s">
+      <c r="C217" s="20">
+        <v>1</v>
+      </c>
+      <c r="D217" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E217" s="62"/>
-      <c r="F217" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" s="64" t="s">
+      <c r="E217" s="20"/>
+      <c r="F217" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="H217" s="62" t="s">
+      <c r="H217" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I217" s="57"/>
-      <c r="J217" s="57">
+      <c r="J217" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9576,27 +9564,26 @@
       <c r="A218" s="7">
         <v>217</v>
       </c>
-      <c r="B218" s="62">
+      <c r="B218" s="20">
         <v>38</v>
       </c>
-      <c r="C218" s="62">
+      <c r="C218" s="20">
         <v>2</v>
       </c>
-      <c r="D218" s="63" t="s">
+      <c r="D218" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E218" s="62"/>
-      <c r="F218" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G218" s="64" t="s">
+      <c r="E218" s="20"/>
+      <c r="F218" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="H218" s="62" t="s">
+      <c r="H218" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57">
+      <c r="J218" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9604,27 +9591,26 @@
       <c r="A219" s="7">
         <v>218</v>
       </c>
-      <c r="B219" s="62">
+      <c r="B219" s="20">
         <v>38</v>
       </c>
-      <c r="C219" s="62">
+      <c r="C219" s="20">
         <v>3</v>
       </c>
-      <c r="D219" s="63" t="s">
+      <c r="D219" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E219" s="62"/>
-      <c r="F219" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G219" s="64" t="s">
+      <c r="E219" s="20"/>
+      <c r="F219" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H219" s="62" t="s">
+      <c r="H219" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I219" s="57"/>
-      <c r="J219" s="57">
+      <c r="J219" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9632,21 +9618,21 @@
       <c r="A220" s="7">
         <v>219</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220" s="20">
         <v>39</v>
       </c>
-      <c r="C220" s="30">
-        <v>1</v>
-      </c>
-      <c r="D220" s="31" t="s">
+      <c r="C220" s="20">
+        <v>1</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E220" s="30" t="s">
+      <c r="E220" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J220" s="7">
@@ -9657,21 +9643,21 @@
       <c r="A221" s="7">
         <v>220</v>
       </c>
-      <c r="B221" s="30">
+      <c r="B221" s="20">
         <v>39</v>
       </c>
-      <c r="C221" s="30">
+      <c r="C221" s="20">
         <v>2</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="32" t="s">
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J221" s="7">
@@ -9682,20 +9668,20 @@
       <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" s="30">
+      <c r="B222" s="20">
         <v>39</v>
       </c>
-      <c r="C222" s="30">
+      <c r="C222" s="20">
         <v>3</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32" t="s">
+      <c r="G222" s="22"/>
+      <c r="H222" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J222" s="7">
@@ -9706,23 +9692,23 @@
       <c r="A223" s="7">
         <v>222</v>
       </c>
-      <c r="B223" s="30">
+      <c r="B223" s="20">
         <v>39</v>
       </c>
-      <c r="C223" s="30">
+      <c r="C223" s="20">
         <v>4</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E223" s="30"/>
-      <c r="F223" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G223" s="32" t="s">
+      <c r="E223" s="20"/>
+      <c r="F223" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H223" s="32" t="s">
+      <c r="H223" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9730,23 +9716,23 @@
       <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="20">
         <v>39</v>
       </c>
-      <c r="C224" s="30">
+      <c r="C224" s="20">
         <v>5</v>
       </c>
-      <c r="D224" s="31" t="s">
+      <c r="D224" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E224" s="30"/>
-      <c r="F224" s="36" t="s">
+      <c r="E224" s="20"/>
+      <c r="F224" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G224" s="32" t="s">
+      <c r="G224" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H224" s="25" t="s">
+      <c r="H224" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J224" s="7">
@@ -9757,23 +9743,23 @@
       <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" s="30">
+      <c r="B225" s="20">
         <v>39</v>
       </c>
-      <c r="C225" s="30">
+      <c r="C225" s="20">
         <v>6</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E225" s="30"/>
-      <c r="F225" s="36" t="s">
+      <c r="E225" s="20"/>
+      <c r="F225" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G225" s="32" t="s">
+      <c r="G225" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H225" s="25" t="s">
+      <c r="H225" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J225" s="7">
@@ -9784,23 +9770,23 @@
       <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" s="30">
+      <c r="B226" s="20">
         <v>39</v>
       </c>
-      <c r="C226" s="30">
+      <c r="C226" s="20">
         <v>7</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E226" s="30"/>
-      <c r="F226" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G226" s="32" t="s">
+      <c r="E226" s="20"/>
+      <c r="F226" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H226" s="25" t="s">
+      <c r="H226" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J226" s="7">
@@ -9811,23 +9797,23 @@
       <c r="A227" s="7">
         <v>226</v>
       </c>
-      <c r="B227" s="30">
+      <c r="B227" s="20">
         <v>39</v>
       </c>
-      <c r="C227" s="30">
+      <c r="C227" s="20">
         <v>8</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E227" s="30"/>
-      <c r="F227" s="36" t="s">
+      <c r="E227" s="20"/>
+      <c r="F227" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G227" s="32" t="s">
+      <c r="G227" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H227" s="32" t="s">
+      <c r="H227" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J227" s="7">
@@ -9838,21 +9824,21 @@
       <c r="A228" s="7">
         <v>227</v>
       </c>
-      <c r="B228" s="30">
+      <c r="B228" s="20">
         <v>40</v>
       </c>
-      <c r="C228" s="30">
-        <v>1</v>
-      </c>
-      <c r="D228" s="31" t="s">
+      <c r="C228" s="20">
+        <v>1</v>
+      </c>
+      <c r="D228" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E228" s="30" t="s">
+      <c r="E228" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="32" t="s">
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J228" s="7">
@@ -9863,21 +9849,21 @@
       <c r="A229" s="7">
         <v>228</v>
       </c>
-      <c r="B229" s="30">
+      <c r="B229" s="20">
         <v>40</v>
       </c>
-      <c r="C229" s="30">
+      <c r="C229" s="20">
         <v>2</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E229" s="30" t="s">
+      <c r="E229" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32" t="s">
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J229" s="7">
@@ -9888,21 +9874,21 @@
       <c r="A230" s="7">
         <v>229</v>
       </c>
-      <c r="B230" s="30">
+      <c r="B230" s="20">
         <v>40</v>
       </c>
-      <c r="C230" s="30">
+      <c r="C230" s="20">
         <v>3</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E230" s="30" t="s">
+      <c r="E230" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32" t="s">
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J230" s="7">
@@ -9913,23 +9899,23 @@
       <c r="A231" s="7">
         <v>230</v>
       </c>
-      <c r="B231" s="30">
+      <c r="B231" s="20">
         <v>40</v>
       </c>
-      <c r="C231" s="30">
+      <c r="C231" s="20">
         <v>4</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E231" s="30"/>
-      <c r="F231" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G231" s="32" t="s">
+      <c r="E231" s="20"/>
+      <c r="F231" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9937,23 +9923,23 @@
       <c r="A232" s="7">
         <v>231</v>
       </c>
-      <c r="B232" s="30">
+      <c r="B232" s="20">
         <v>40</v>
       </c>
-      <c r="C232" s="30">
+      <c r="C232" s="20">
         <v>5</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E232" s="30"/>
-      <c r="F232" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G232" s="32" t="s">
+      <c r="E232" s="20"/>
+      <c r="F232" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H232" s="25" t="s">
+      <c r="H232" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J232" s="7">
@@ -9964,23 +9950,23 @@
       <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" s="30">
+      <c r="B233" s="20">
         <v>40</v>
       </c>
-      <c r="C233" s="30">
+      <c r="C233" s="20">
         <v>6</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E233" s="30"/>
-      <c r="F233" s="25" t="s">
+      <c r="E233" s="20"/>
+      <c r="F233" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G233" s="32" t="s">
+      <c r="G233" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H233" s="25" t="s">
+      <c r="H233" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J233" s="7">
@@ -9991,23 +9977,23 @@
       <c r="A234" s="7">
         <v>233</v>
       </c>
-      <c r="B234" s="30">
+      <c r="B234" s="20">
         <v>40</v>
       </c>
-      <c r="C234" s="30">
+      <c r="C234" s="20">
         <v>7</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E234" s="30"/>
-      <c r="F234" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G234" s="32" t="s">
+      <c r="E234" s="20"/>
+      <c r="F234" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H234" s="25" t="s">
+      <c r="H234" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J234" s="7">
@@ -10018,26 +10004,439 @@
       <c r="A235" s="7">
         <v>234</v>
       </c>
-      <c r="B235" s="30">
+      <c r="B235" s="20">
         <v>40</v>
       </c>
-      <c r="C235" s="30">
+      <c r="C235" s="20">
         <v>8</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E235" s="30"/>
-      <c r="F235" s="25" t="s">
+      <c r="E235" s="20"/>
+      <c r="F235" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G235" s="32" t="s">
+      <c r="G235" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J235" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="34" customFormat="1">
+      <c r="A236" s="34">
+        <v>235</v>
+      </c>
+      <c r="B236" s="40">
+        <v>41</v>
+      </c>
+      <c r="C236" s="40">
+        <v>1</v>
+      </c>
+      <c r="D236" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J236" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="34" customFormat="1">
+      <c r="A237" s="34">
+        <v>236</v>
+      </c>
+      <c r="B237" s="40">
+        <v>41</v>
+      </c>
+      <c r="C237" s="40">
+        <v>2</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F237" s="42"/>
+      <c r="G237" s="42"/>
+      <c r="H237" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J237" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="34" customFormat="1">
+      <c r="A238" s="34">
+        <v>237</v>
+      </c>
+      <c r="B238" s="40">
+        <v>41</v>
+      </c>
+      <c r="C238" s="40">
+        <v>3</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G238" s="42"/>
+      <c r="H238" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J238" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="34" customFormat="1">
+      <c r="A239" s="34">
+        <v>238</v>
+      </c>
+      <c r="B239" s="40">
+        <v>41</v>
+      </c>
+      <c r="C239" s="40">
+        <v>4</v>
+      </c>
+      <c r="D239" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E239" s="40"/>
+      <c r="F239" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G239" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H239" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A240" s="34">
+        <v>239</v>
+      </c>
+      <c r="B240" s="40">
+        <v>41</v>
+      </c>
+      <c r="C240" s="40">
+        <v>5</v>
+      </c>
+      <c r="D240" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="40"/>
+      <c r="F240" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G240" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H240" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J240" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A241" s="34">
+        <v>240</v>
+      </c>
+      <c r="B241" s="40">
+        <v>41</v>
+      </c>
+      <c r="C241" s="40">
+        <v>6</v>
+      </c>
+      <c r="D241" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" s="40"/>
+      <c r="F241" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G241" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H241" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J241" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" s="34" customFormat="1">
+      <c r="A242" s="34">
+        <v>241</v>
+      </c>
+      <c r="B242" s="40">
+        <v>41</v>
+      </c>
+      <c r="C242" s="40">
+        <v>7</v>
+      </c>
+      <c r="D242" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E242" s="40"/>
+      <c r="F242" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H242" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J242" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A243" s="34">
+        <v>242</v>
+      </c>
+      <c r="B243" s="40">
+        <v>41</v>
+      </c>
+      <c r="C243" s="40">
+        <v>8</v>
+      </c>
+      <c r="D243" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E243" s="40"/>
+      <c r="F243" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G243" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H243" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J243" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" s="34" customFormat="1">
+      <c r="A244" s="34">
+        <v>243</v>
+      </c>
+      <c r="B244" s="40">
+        <v>42</v>
+      </c>
+      <c r="C244" s="40">
+        <v>1</v>
+      </c>
+      <c r="D244" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F244" s="42"/>
+      <c r="G244" s="42"/>
+      <c r="H244" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J244" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="34" customFormat="1">
+      <c r="A245" s="34">
+        <v>244</v>
+      </c>
+      <c r="B245" s="40">
+        <v>42</v>
+      </c>
+      <c r="C245" s="40">
+        <v>2</v>
+      </c>
+      <c r="D245" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F245" s="42"/>
+      <c r="G245" s="42"/>
+      <c r="H245" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J245" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" s="34" customFormat="1">
+      <c r="A246" s="34">
+        <v>245</v>
+      </c>
+      <c r="B246" s="40">
+        <v>42</v>
+      </c>
+      <c r="C246" s="40">
+        <v>3</v>
+      </c>
+      <c r="D246" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F246" s="42"/>
+      <c r="G246" s="42"/>
+      <c r="H246" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J246" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="34" customFormat="1">
+      <c r="A247" s="34">
+        <v>246</v>
+      </c>
+      <c r="B247" s="40">
+        <v>42</v>
+      </c>
+      <c r="C247" s="40">
+        <v>4</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E247" s="40"/>
+      <c r="F247" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H247" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="34" customFormat="1">
+      <c r="A248" s="34">
+        <v>247</v>
+      </c>
+      <c r="B248" s="40">
+        <v>42</v>
+      </c>
+      <c r="C248" s="40">
+        <v>5</v>
+      </c>
+      <c r="D248" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E248" s="40"/>
+      <c r="F248" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H248" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J248" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="34" customFormat="1">
+      <c r="A249" s="34">
+        <v>248</v>
+      </c>
+      <c r="B249" s="40">
+        <v>42</v>
+      </c>
+      <c r="C249" s="40">
+        <v>6</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" s="40"/>
+      <c r="F249" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G249" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H249" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J249" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="34" customFormat="1">
+      <c r="A250" s="34">
+        <v>249</v>
+      </c>
+      <c r="B250" s="40">
+        <v>42</v>
+      </c>
+      <c r="C250" s="40">
+        <v>7</v>
+      </c>
+      <c r="D250" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E250" s="40"/>
+      <c r="F250" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G250" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H250" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J250" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="34" customFormat="1">
+      <c r="A251" s="34">
+        <v>250</v>
+      </c>
+      <c r="B251" s="40">
+        <v>42</v>
+      </c>
+      <c r="C251" s="40">
+        <v>8</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E251" s="40"/>
+      <c r="F251" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G251" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H251" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J251" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10066,10 +10465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10077,7 +10476,7 @@
       <c r="A2" s="7">
         <v>34</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10085,7 +10484,7 @@
       <c r="A3" s="7">
         <v>35</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10093,7 +10492,7 @@
       <c r="A4" s="7">
         <v>36</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10101,7 +10500,7 @@
       <c r="A5" s="7">
         <v>37</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10109,7 +10508,7 @@
       <c r="A6" s="7">
         <v>38</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10117,7 +10516,7 @@
       <c r="A7" s="7">
         <v>39</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10125,7 +10524,7 @@
       <c r="A8" s="7">
         <v>40</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10133,7 +10532,7 @@
       <c r="A9" s="7">
         <v>41</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10141,7 +10540,7 @@
       <c r="A10" s="7">
         <v>42</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10149,7 +10548,7 @@
       <c r="A11" s="7">
         <v>43</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10157,7 +10556,7 @@
       <c r="A12" s="7">
         <v>44</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10165,7 +10564,7 @@
       <c r="A13" s="7">
         <v>45</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10173,7 +10572,7 @@
       <c r="A14" s="7">
         <v>46</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10181,7 +10580,7 @@
       <c r="A15" s="7">
         <v>47</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10189,7 +10588,7 @@
       <c r="A16" s="7">
         <v>48</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="28" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10197,7 +10596,7 @@
       <c r="A17" s="7">
         <v>49</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="28" t="s">
         <v>278</v>
       </c>
     </row>

--- a/config_3.2/activity_exchange_server.xlsx
+++ b/config_3.2/activity_exchange_server.xlsx
@@ -3931,10 +3931,10 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E244" sqref="E244"/>
+      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8961,7 +8961,7 @@
         <v>34</v>
       </c>
       <c r="C195" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="21" t="s">
         <v>130</v>
@@ -8986,7 +8986,7 @@
         <v>34</v>
       </c>
       <c r="C196" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D196" s="21" t="s">
         <v>130</v>
@@ -9011,7 +9011,7 @@
         <v>34</v>
       </c>
       <c r="C197" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D197" s="21" t="s">
         <v>130</v>
@@ -9038,7 +9038,7 @@
         <v>34</v>
       </c>
       <c r="C198" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D198" s="21" t="s">
         <v>130</v>
@@ -9062,7 +9062,7 @@
         <v>34</v>
       </c>
       <c r="C199" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D199" s="21" t="s">
         <v>130</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="C200" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D200" s="21" t="s">
         <v>130</v>
@@ -9170,7 +9170,7 @@
         <v>35</v>
       </c>
       <c r="C203" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="21" t="s">
         <v>131</v>
@@ -9195,7 +9195,7 @@
         <v>35</v>
       </c>
       <c r="C204" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D204" s="21" t="s">
         <v>131</v>
@@ -9220,7 +9220,7 @@
         <v>35</v>
       </c>
       <c r="C205" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D205" s="21" t="s">
         <v>131</v>
@@ -9247,7 +9247,7 @@
         <v>35</v>
       </c>
       <c r="C206" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206" s="21" t="s">
         <v>131</v>
@@ -9271,7 +9271,7 @@
         <v>35</v>
       </c>
       <c r="C207" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D207" s="21" t="s">
         <v>131</v>
@@ -9298,7 +9298,7 @@
         <v>35</v>
       </c>
       <c r="C208" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208" s="21" t="s">
         <v>131</v>

--- a/config_3.2/activity_exchange_server.xlsx
+++ b/config_3.2/activity_exchange_server.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="319">
   <si>
     <t>id|</t>
   </si>
@@ -1532,6 +1532,34 @@
   </si>
   <si>
     <t>高端皂3块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3931,10 +3959,10 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9382,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="22" t="s">
@@ -9409,7 +9437,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="22" t="s">
@@ -9436,7 +9464,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="22" t="s">
@@ -9463,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="22" t="s">
@@ -9490,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="22" t="s">
@@ -9517,7 +9545,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="22" t="s">
@@ -9544,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="22" t="s">
@@ -9571,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="22" t="s">
@@ -9598,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="22" t="s">
